--- a/database/EmployeeData.xlsx
+++ b/database/EmployeeData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhamad.fajar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE86737-B64A-4886-9A64-CE53C04819B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -25,72 +31,97 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Inactive</t>
+    <t>Dicky Dixon</t>
+  </si>
+  <si>
+    <t>Vincent Tanujaya</t>
+  </si>
+  <si>
+    <t>Steven Salar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Ryan Arrafi </t>
+  </si>
+  <si>
+    <t>Yohanes Duns Scotus Aerotri Tunyanan</t>
+  </si>
+  <si>
+    <t>David Drago Suherman</t>
+  </si>
+  <si>
+    <t>Kevin Adi Santoso</t>
+  </si>
+  <si>
+    <t>Steven Putra Adicandra</t>
+  </si>
+  <si>
+    <t>Alexander Nathanael Lubis</t>
+  </si>
+  <si>
+    <t>George Mercedes junior suitela</t>
+  </si>
+  <si>
+    <t>LOGIC-Alpha</t>
+  </si>
+  <si>
+    <t>LOGIC-Beta</t>
+  </si>
+  <si>
+    <t>Anthony Henry Suryana</t>
+  </si>
+  <si>
+    <t>Jose Armando Kusnadi</t>
+  </si>
+  <si>
+    <t>Jonathan Oyong</t>
+  </si>
+  <si>
+    <t>Steven Nugroho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,17 +130,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -117,17 +163,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -206,6 +272,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,6 +307,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,20 +342,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -409,76 +473,284 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="12.4140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>2602099863</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2602069620</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2702258535</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2602100114</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2602076336</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>2702326744</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2702285933</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2602076840</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>2602071575</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>2702288651</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2602054770</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2602089824</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2602105784</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2602149691</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D1 D2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/database/EmployeeData.xlsx
+++ b/database/EmployeeData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhamad.fajar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!GitHub\fajarnadril\Employee-Attendance\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE86737-B64A-4886-9A64-CE53C04819B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABADDA8E-BA90-496E-A693-609CE2D0DEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -31,12 +31,18 @@
     <t>Department</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Dicky Dixon</t>
   </si>
   <si>
+    <t>LOGIC-Alpha</t>
+  </si>
+  <si>
     <t>Vincent Tanujaya</t>
   </si>
   <si>
@@ -64,13 +70,10 @@
     <t>George Mercedes junior suitela</t>
   </si>
   <si>
-    <t>LOGIC-Alpha</t>
+    <t>Anthony Henry Suryana</t>
   </si>
   <si>
     <t>LOGIC-Beta</t>
-  </si>
-  <si>
-    <t>Anthony Henry Suryana</t>
   </si>
   <si>
     <t>Jose Armando Kusnadi</t>
@@ -86,42 +89,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,32 +123,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,29 +141,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +204,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -310,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,16 +308,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -473,284 +443,232 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="12.4140625" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2602099863</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2602069620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2702258535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2602100114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2602076336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2702326744</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2702285933</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2602076840</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2602071575</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2602069620</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>2702258535</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2602100114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>2602076336</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2702326744</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>2702285933</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>2602076840</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>2602071575</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2702288651</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2602054770</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2602089824</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2602105784</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2602149691</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="15.5" x14ac:dyDescent="0.35"/>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D1 D2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>